--- a/tables/xlsx/WorldAndStage/Stage.xlsx
+++ b/tables/xlsx/WorldAndStage/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\WorldAndStage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A9C5ED-1A60-49D3-A485-817D25763BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2F2AD-0006-4E84-9DA3-B23F866EB43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1170" windowWidth="21540" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="645" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="3" r:id="rId1"/>
@@ -245,124 +245,124 @@
     <t>183</t>
   </si>
   <si>
-    <t>item/1/id</t>
+    <t>item1</t>
   </si>
   <si>
-    <t>item/1/ratio</t>
+    <t>item1_ratio</t>
   </si>
   <si>
-    <t>item/1/min</t>
+    <t>item1_min</t>
   </si>
   <si>
-    <t>item/1/max</t>
+    <t>item1_max</t>
   </si>
   <si>
-    <t>item/2/id</t>
+    <t>item2</t>
   </si>
   <si>
-    <t>item/2/ratio</t>
+    <t>item2_ratio</t>
   </si>
   <si>
-    <t>item/2/min</t>
+    <t>item2_min</t>
   </si>
   <si>
-    <t>item/2/max</t>
+    <t>item2_max</t>
   </si>
   <si>
-    <t>item/3/id</t>
+    <t>item3</t>
   </si>
   <si>
-    <t>item/3/ratio</t>
+    <t>item3_ratio</t>
   </si>
   <si>
-    <t>item/3/min</t>
+    <t>item3_min</t>
   </si>
   <si>
-    <t>item/3/max</t>
+    <t>item3_max</t>
   </si>
   <si>
-    <t>item/4/ratio</t>
+    <t>item4</t>
   </si>
   <si>
-    <t>item/4/id</t>
+    <t>item4_ratio</t>
   </si>
   <si>
-    <t>item/4/min</t>
+    <t>item4_min</t>
   </si>
   <si>
-    <t>item/4/max</t>
+    <t>item4_max</t>
   </si>
   <si>
-    <t>item/5/max</t>
+    <t>item5</t>
   </si>
   <si>
-    <t>item/5/id</t>
+    <t>item5_ratio</t>
   </si>
   <si>
-    <t>item/5/ratio</t>
+    <t>item5_min</t>
   </si>
   <si>
-    <t>item/5/min</t>
+    <t>item5_max</t>
   </si>
   <si>
-    <t>item/6/id</t>
+    <t>item6</t>
   </si>
   <si>
-    <t>item/6/ratio</t>
+    <t>item6_ratio</t>
   </si>
   <si>
-    <t>item/6/min</t>
+    <t>item6_min</t>
   </si>
   <si>
-    <t>item/6/max</t>
+    <t>item6_max</t>
   </si>
   <si>
-    <t>item/7/id</t>
+    <t>item7</t>
   </si>
   <si>
-    <t>item/7/ratio</t>
+    <t>item7_ratio</t>
   </si>
   <si>
-    <t>item/7/min</t>
+    <t>item7_min</t>
   </si>
   <si>
-    <t>item/7/max</t>
+    <t>item7_max</t>
   </si>
   <si>
-    <t>item/8/id</t>
+    <t>item8</t>
   </si>
   <si>
-    <t>item/8/ratio</t>
+    <t>item8_ratio</t>
   </si>
   <si>
-    <t>item/8/min</t>
+    <t>item8_min</t>
   </si>
   <si>
-    <t>item/8/max</t>
+    <t>item8_max</t>
   </si>
   <si>
-    <t>item/9/id</t>
+    <t>item9</t>
   </si>
   <si>
-    <t>item/9/ratio</t>
+    <t>item9_ratio</t>
   </si>
   <si>
-    <t>item/9/min</t>
+    <t>item9_min</t>
   </si>
   <si>
-    <t>item/9/max</t>
+    <t>item9_max</t>
   </si>
   <si>
-    <t>item/10/id</t>
+    <t>item10</t>
   </si>
   <si>
-    <t>item/10/ratio</t>
+    <t>item10_ratio</t>
   </si>
   <si>
-    <t>item/10/min</t>
+    <t>item10_min</t>
   </si>
   <si>
-    <t>item/10/max</t>
+    <t>item10_max</t>
   </si>
 </sst>
 </file>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54694DB-E19C-4FEC-A072-37A755708EC9}">
   <dimension ref="A1:BA302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AW12" sqref="AW12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +921,10 @@
         <v>83</v>
       </c>
       <c r="X1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="Z1" s="18" t="s">
         <v>86</v>
@@ -933,16 +933,16 @@
         <v>87</v>
       </c>
       <c r="AB1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="AF1" s="18" t="s">
         <v>92</v>
